--- a/Code/Results/Cases/Case_7_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_20/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011209734973667</v>
+        <v>1.016095082511975</v>
       </c>
       <c r="D2">
-        <v>1.027616238449277</v>
+        <v>1.031977735181159</v>
       </c>
       <c r="E2">
-        <v>1.022100232058528</v>
+        <v>1.026943744466703</v>
       </c>
       <c r="F2">
-        <v>1.025103876036832</v>
+        <v>1.030043484281751</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050317813057975</v>
+        <v>1.052684465217017</v>
       </c>
       <c r="J2">
-        <v>1.033060257229712</v>
+        <v>1.037804823024337</v>
       </c>
       <c r="K2">
-        <v>1.038703788650497</v>
+        <v>1.043008844862195</v>
       </c>
       <c r="L2">
-        <v>1.033260027783061</v>
+        <v>1.038040050585102</v>
       </c>
       <c r="M2">
-        <v>1.03622421092692</v>
+        <v>1.041099550585775</v>
       </c>
       <c r="N2">
-        <v>1.034527321288646</v>
+        <v>1.039278624910908</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018335157336531</v>
+        <v>1.020481129036426</v>
       </c>
       <c r="D3">
-        <v>1.033115044103548</v>
+        <v>1.035289722631473</v>
       </c>
       <c r="E3">
-        <v>1.028395030658595</v>
+        <v>1.030747338011893</v>
       </c>
       <c r="F3">
-        <v>1.032153332077006</v>
+        <v>1.034493864105659</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052834852815739</v>
+        <v>1.054208147013708</v>
       </c>
       <c r="J3">
-        <v>1.038338167634487</v>
+        <v>1.040428613396562</v>
       </c>
       <c r="K3">
-        <v>1.043341044187258</v>
+        <v>1.045490130450988</v>
       </c>
       <c r="L3">
-        <v>1.03867703894336</v>
+        <v>1.041001354107725</v>
       </c>
       <c r="M3">
-        <v>1.042390692470349</v>
+        <v>1.044703622372352</v>
       </c>
       <c r="N3">
-        <v>1.039812726931581</v>
+        <v>1.041906141366415</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022811535635818</v>
+        <v>1.023261844440104</v>
       </c>
       <c r="D4">
-        <v>1.0365705942473</v>
+        <v>1.037391097130492</v>
       </c>
       <c r="E4">
-        <v>1.03235548555266</v>
+        <v>1.033164556860213</v>
       </c>
       <c r="F4">
-        <v>1.036590551286183</v>
+        <v>1.037322931563353</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054401182076455</v>
+        <v>1.055163426265635</v>
       </c>
       <c r="J4">
-        <v>1.041649187796178</v>
+        <v>1.042088663502089</v>
       </c>
       <c r="K4">
-        <v>1.04624680464814</v>
+        <v>1.047058254489739</v>
       </c>
       <c r="L4">
-        <v>1.042078482592067</v>
+        <v>1.042878536990514</v>
       </c>
       <c r="M4">
-        <v>1.04626654128145</v>
+        <v>1.046990840358935</v>
       </c>
       <c r="N4">
-        <v>1.04312844912168</v>
+        <v>1.043568548933502</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024662992248951</v>
+        <v>1.024417596039774</v>
       </c>
       <c r="D5">
-        <v>1.037999983652361</v>
+        <v>1.038264831937245</v>
       </c>
       <c r="E5">
-        <v>1.033994896637791</v>
+        <v>1.034170581493753</v>
       </c>
       <c r="F5">
-        <v>1.038427814277399</v>
+        <v>1.03850057698504</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055045377053109</v>
+        <v>1.055557859316842</v>
       </c>
       <c r="J5">
-        <v>1.043017458321718</v>
+        <v>1.042777782929031</v>
       </c>
       <c r="K5">
-        <v>1.047446773779631</v>
+        <v>1.047708780231927</v>
       </c>
       <c r="L5">
-        <v>1.043484879153711</v>
+        <v>1.043658660752792</v>
       </c>
       <c r="M5">
-        <v>1.047870014647837</v>
+        <v>1.047941997219852</v>
       </c>
       <c r="N5">
-        <v>1.04449866274831</v>
+        <v>1.044258646989074</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024972124151043</v>
+        <v>1.024610887379223</v>
       </c>
       <c r="D6">
-        <v>1.038238650546503</v>
+        <v>1.038410976519655</v>
       </c>
       <c r="E6">
-        <v>1.03426870099655</v>
+        <v>1.03433891071371</v>
       </c>
       <c r="F6">
-        <v>1.038734692663227</v>
+        <v>1.038697635058556</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055152719928073</v>
+        <v>1.055623670912358</v>
       </c>
       <c r="J6">
-        <v>1.043245842698777</v>
+        <v>1.042892982533452</v>
       </c>
       <c r="K6">
-        <v>1.04764701675124</v>
+        <v>1.047817502387843</v>
       </c>
       <c r="L6">
-        <v>1.043719671977159</v>
+        <v>1.043789124734166</v>
       </c>
       <c r="M6">
-        <v>1.048137763461416</v>
+        <v>1.04810110124436</v>
       </c>
       <c r="N6">
-        <v>1.04472737145738</v>
+        <v>1.044374010190147</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022836392211663</v>
+        <v>1.023277339152483</v>
       </c>
       <c r="D7">
-        <v>1.036589783915673</v>
+        <v>1.037402809676789</v>
       </c>
       <c r="E7">
-        <v>1.032377490102675</v>
+        <v>1.03317803893586</v>
       </c>
       <c r="F7">
-        <v>1.036615209446452</v>
+        <v>1.037338712721328</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054409845181306</v>
+        <v>1.055168724638524</v>
       </c>
       <c r="J7">
-        <v>1.041667562170692</v>
+        <v>1.042097905651579</v>
       </c>
       <c r="K7">
-        <v>1.046262922232056</v>
+        <v>1.047066980764598</v>
       </c>
       <c r="L7">
-        <v>1.04209736595254</v>
+        <v>1.042888996207361</v>
       </c>
       <c r="M7">
-        <v>1.046288067071286</v>
+        <v>1.0470035901362</v>
       </c>
       <c r="N7">
-        <v>1.043146849589914</v>
+        <v>1.043577804207904</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013646686071239</v>
+        <v>1.017589531636541</v>
       </c>
       <c r="D8">
-        <v>1.029496587553997</v>
+        <v>1.033105857323459</v>
       </c>
       <c r="E8">
-        <v>1.024251813618641</v>
+        <v>1.02823850508491</v>
       </c>
       <c r="F8">
-        <v>1.02751300546324</v>
+        <v>1.031558255990134</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051181773371523</v>
+        <v>1.053205850933141</v>
       </c>
       <c r="J8">
-        <v>1.034866299373107</v>
+        <v>1.038699518071253</v>
       </c>
       <c r="K8">
-        <v>1.040291299107361</v>
+        <v>1.043855311073531</v>
       </c>
       <c r="L8">
-        <v>1.035113001221984</v>
+        <v>1.039049085326788</v>
       </c>
       <c r="M8">
-        <v>1.03833275876641</v>
+        <v>1.042327067258029</v>
       </c>
       <c r="N8">
-        <v>1.036335928219041</v>
+        <v>1.040174590527414</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.996339386849982</v>
+        <v>1.007105394751541</v>
       </c>
       <c r="D9">
-        <v>1.016151402111892</v>
+        <v>1.025200428170798</v>
       </c>
       <c r="E9">
-        <v>1.008999995295641</v>
+        <v>1.019181140154798</v>
       </c>
       <c r="F9">
-        <v>1.010442752173027</v>
+        <v>1.020964451024733</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044984123358095</v>
+        <v>1.049504226810926</v>
       </c>
       <c r="J9">
-        <v>1.022022076343551</v>
+        <v>1.032409714327756</v>
       </c>
       <c r="K9">
-        <v>1.028987758575796</v>
+        <v>1.03789746164521</v>
       </c>
       <c r="L9">
-        <v>1.021948722177196</v>
+        <v>1.031970497552157</v>
       </c>
       <c r="M9">
-        <v>1.023368644969665</v>
+        <v>1.033726311125797</v>
       </c>
       <c r="N9">
-        <v>1.023473464919529</v>
+        <v>1.03387585454115</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9839177574062594</v>
+        <v>0.9997725948130446</v>
       </c>
       <c r="D10">
-        <v>1.006590772154569</v>
+        <v>1.019684677187042</v>
       </c>
       <c r="E10">
-        <v>0.9980946880144145</v>
+        <v>1.012880782322893</v>
       </c>
       <c r="F10">
-        <v>0.9982449811650609</v>
+        <v>1.013597753636628</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0404601487071</v>
+        <v>1.046861209891044</v>
       </c>
       <c r="J10">
-        <v>1.012784302855944</v>
+        <v>1.027995238066396</v>
       </c>
       <c r="K10">
-        <v>1.020842039153388</v>
+        <v>1.033707387336584</v>
       </c>
       <c r="L10">
-        <v>1.012498428881948</v>
+        <v>1.027021300692623</v>
       </c>
       <c r="M10">
-        <v>1.01264599548393</v>
+        <v>1.027725761244482</v>
       </c>
       <c r="N10">
-        <v>1.014222572733982</v>
+        <v>1.029455109217152</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9782943635274997</v>
+        <v>0.9965079647370779</v>
       </c>
       <c r="D11">
-        <v>1.002268745242089</v>
+        <v>1.017232983096039</v>
       </c>
       <c r="E11">
-        <v>0.9931690410279267</v>
+        <v>1.010084564010162</v>
       </c>
       <c r="F11">
-        <v>0.9927368596815247</v>
+        <v>1.01032853896277</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03839523793856</v>
+        <v>1.045672274646167</v>
       </c>
       <c r="J11">
-        <v>1.008598855896867</v>
+        <v>1.026026741511728</v>
       </c>
       <c r="K11">
-        <v>1.017148002804708</v>
+        <v>1.031837067212271</v>
       </c>
       <c r="L11">
-        <v>1.008220939315674</v>
+        <v>1.024818773549994</v>
       </c>
       <c r="M11">
-        <v>1.007797060458874</v>
+        <v>1.025058267798946</v>
       </c>
       <c r="N11">
-        <v>1.010031181960147</v>
+        <v>1.027483817171587</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9761653544019367</v>
+        <v>0.9952811566893534</v>
       </c>
       <c r="D12">
-        <v>1.000633553316351</v>
+        <v>1.016312332281137</v>
       </c>
       <c r="E12">
-        <v>0.9913060424327117</v>
+        <v>1.00903514655645</v>
       </c>
       <c r="F12">
-        <v>0.9906536981433294</v>
+        <v>1.009101618889874</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037611041765361</v>
+        <v>1.04522369943586</v>
       </c>
       <c r="J12">
-        <v>1.007013851311889</v>
+        <v>1.025286577865026</v>
       </c>
       <c r="K12">
-        <v>1.015748625502083</v>
+        <v>1.031133547361918</v>
       </c>
       <c r="L12">
-        <v>1.006601722155524</v>
+        <v>1.023991270687436</v>
       </c>
       <c r="M12">
-        <v>1.005962176169521</v>
+        <v>1.024056499219903</v>
       </c>
       <c r="N12">
-        <v>1.008443926486855</v>
+        <v>1.026742602407608</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9766239150779287</v>
+        <v>0.9955449651914168</v>
       </c>
       <c r="D13">
-        <v>1.000985698271062</v>
+        <v>1.016510274569771</v>
       </c>
       <c r="E13">
-        <v>0.9917072221332378</v>
+        <v>1.009260746983074</v>
       </c>
       <c r="F13">
-        <v>0.9911022823619385</v>
+        <v>1.009365378162237</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037780054858742</v>
+        <v>1.045320239415287</v>
       </c>
       <c r="J13">
-        <v>1.007355256650869</v>
+        <v>1.025445758618688</v>
       </c>
       <c r="K13">
-        <v>1.01605006766327</v>
+        <v>1.031284859477356</v>
       </c>
       <c r="L13">
-        <v>1.006950467643718</v>
+        <v>1.024169205135788</v>
       </c>
       <c r="M13">
-        <v>1.006357342853164</v>
+        <v>1.024271886299643</v>
       </c>
       <c r="N13">
-        <v>1.008785816660576</v>
+        <v>1.026902009216199</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9781192212647267</v>
+        <v>0.9964068500854638</v>
       </c>
       <c r="D14">
-        <v>1.0021342027604</v>
+        <v>1.017157088259955</v>
       </c>
       <c r="E14">
-        <v>0.9930157437291435</v>
+        <v>1.009998041960527</v>
       </c>
       <c r="F14">
-        <v>0.9925654436403784</v>
+        <v>1.010227382143293</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038330774764534</v>
+        <v>1.045635338702751</v>
       </c>
       <c r="J14">
-        <v>1.008468473416123</v>
+        <v>1.025965744955713</v>
       </c>
       <c r="K14">
-        <v>1.017032899250345</v>
+        <v>1.031779095887545</v>
       </c>
       <c r="L14">
-        <v>1.0080877294269</v>
+        <v>1.024750566079339</v>
       </c>
       <c r="M14">
-        <v>1.007646094992008</v>
+        <v>1.024975687798568</v>
       </c>
       <c r="N14">
-        <v>1.009900614321325</v>
+        <v>1.027422733993466</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9790350867369376</v>
+        <v>0.9969359840773231</v>
       </c>
       <c r="D15">
-        <v>1.002837807965114</v>
+        <v>1.017554274265437</v>
       </c>
       <c r="E15">
-        <v>0.9938174519505701</v>
+        <v>1.010450868759973</v>
       </c>
       <c r="F15">
-        <v>0.9934619140407666</v>
+        <v>1.010756802657071</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03866777202963</v>
+        <v>1.045828552297956</v>
       </c>
       <c r="J15">
-        <v>1.009150262525424</v>
+        <v>1.026284923419425</v>
       </c>
       <c r="K15">
-        <v>1.017634773882803</v>
+        <v>1.032082433168122</v>
       </c>
       <c r="L15">
-        <v>1.00878432964788</v>
+        <v>1.025107504064682</v>
       </c>
       <c r="M15">
-        <v>1.008435571514543</v>
+        <v>1.025407856225234</v>
       </c>
       <c r="N15">
-        <v>1.010583371649363</v>
+        <v>1.027742365727207</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9842855216797174</v>
+        <v>0.9999873106745337</v>
       </c>
       <c r="D16">
-        <v>1.0068735718272</v>
+        <v>1.019846014460152</v>
       </c>
       <c r="E16">
-        <v>0.9984170660533753</v>
+        <v>1.013064877346013</v>
       </c>
       <c r="F16">
-        <v>0.9986055041417182</v>
+        <v>1.013812992628402</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040594851829981</v>
+        <v>1.04693915581009</v>
       </c>
       <c r="J16">
-        <v>1.013057965388272</v>
+        <v>1.028124645179417</v>
       </c>
       <c r="K16">
-        <v>1.021083504590556</v>
+        <v>1.03383030216299</v>
       </c>
       <c r="L16">
-        <v>1.012778197821398</v>
+        <v>1.027166184156526</v>
       </c>
       <c r="M16">
-        <v>1.012963230441233</v>
+        <v>1.027901290105323</v>
       </c>
       <c r="N16">
-        <v>1.014496623898496</v>
+        <v>1.029584700103117</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9875111481041313</v>
+        <v>1.001876867329941</v>
       </c>
       <c r="D17">
-        <v>1.009354698381324</v>
+        <v>1.02126628533722</v>
       </c>
       <c r="E17">
-        <v>1.001245904053393</v>
+        <v>1.014685965576832</v>
       </c>
       <c r="F17">
-        <v>1.001769201455559</v>
+        <v>1.015708352788375</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041774430194977</v>
+        <v>1.047623713262965</v>
       </c>
       <c r="J17">
-        <v>1.015457861101859</v>
+        <v>1.029263110869947</v>
       </c>
       <c r="K17">
-        <v>1.023200670129395</v>
+        <v>1.034911438327145</v>
       </c>
       <c r="L17">
-        <v>1.015232123267346</v>
+        <v>1.0284413049237</v>
       </c>
       <c r="M17">
-        <v>1.015746281109904</v>
+        <v>1.02944645161342</v>
       </c>
       <c r="N17">
-        <v>1.016899927739268</v>
+        <v>1.030724782545511</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9893692428254229</v>
+        <v>1.002970432612679</v>
       </c>
       <c r="D18">
-        <v>1.01078449566287</v>
+        <v>1.022088627267861</v>
       </c>
       <c r="E18">
-        <v>1.002876482575371</v>
+        <v>1.015624984671155</v>
       </c>
       <c r="F18">
-        <v>1.003592922945312</v>
+        <v>1.016806271639106</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04245232468076</v>
+        <v>1.048018730255164</v>
       </c>
       <c r="J18">
-        <v>1.016839971865374</v>
+        <v>1.029921688372262</v>
       </c>
       <c r="K18">
-        <v>1.024419635476073</v>
+        <v>1.035536672041707</v>
       </c>
       <c r="L18">
-        <v>1.016645748222679</v>
+        <v>1.029179352970881</v>
       </c>
       <c r="M18">
-        <v>1.017349924726963</v>
+        <v>1.030341078469686</v>
       </c>
       <c r="N18">
-        <v>1.018284001258597</v>
+        <v>1.03138429530342</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9899989410743931</v>
+        <v>1.003341876124025</v>
       </c>
       <c r="D19">
-        <v>1.011269136689711</v>
+        <v>1.022368007345942</v>
       </c>
       <c r="E19">
-        <v>1.003429250888614</v>
+        <v>1.015944073497965</v>
       </c>
       <c r="F19">
-        <v>1.004211189767771</v>
+        <v>1.017179361718056</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042681786401377</v>
+        <v>1.048152703758199</v>
       </c>
       <c r="J19">
-        <v>1.017308302807748</v>
+        <v>1.030145330513956</v>
       </c>
       <c r="K19">
-        <v>1.024832628889171</v>
+        <v>1.035748960287692</v>
       </c>
       <c r="L19">
-        <v>1.017124825216954</v>
+        <v>1.029430053173884</v>
       </c>
       <c r="M19">
-        <v>1.017893470886877</v>
+        <v>1.030645012822652</v>
       </c>
       <c r="N19">
-        <v>1.018752997284628</v>
+        <v>1.031608255042607</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.987167508600466</v>
+        <v>1.001675028527983</v>
       </c>
       <c r="D20">
-        <v>1.009090313491789</v>
+        <v>1.021114535669235</v>
       </c>
       <c r="E20">
-        <v>1.000944425919873</v>
+        <v>1.014512717828637</v>
       </c>
       <c r="F20">
-        <v>1.001432023598037</v>
+        <v>1.015505790632889</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041648929447746</v>
+        <v>1.047550710659891</v>
       </c>
       <c r="J20">
-        <v>1.015202223563908</v>
+        <v>1.029141532987333</v>
       </c>
       <c r="K20">
-        <v>1.02297518205721</v>
+        <v>1.034796001300696</v>
       </c>
       <c r="L20">
-        <v>1.014970689039894</v>
+        <v>1.028305090115355</v>
       </c>
       <c r="M20">
-        <v>1.015449739248071</v>
+        <v>1.029281360997991</v>
       </c>
       <c r="N20">
-        <v>1.016643927166691</v>
+        <v>1.030603032008359</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.977680031460242</v>
+        <v>0.9961534440446994</v>
       </c>
       <c r="D21">
-        <v>1.001796840409915</v>
+        <v>1.016966897218869</v>
       </c>
       <c r="E21">
-        <v>0.9926313629279887</v>
+        <v>1.009781229019861</v>
       </c>
       <c r="F21">
-        <v>0.9921356336440026</v>
+        <v>1.009973896486621</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038169087201783</v>
+        <v>1.045542743956793</v>
       </c>
       <c r="J21">
-        <v>1.008141517996802</v>
+        <v>1.025812873188856</v>
       </c>
       <c r="K21">
-        <v>1.016744250874409</v>
+        <v>1.031633801743627</v>
       </c>
       <c r="L21">
-        <v>1.00775369418484</v>
+        <v>1.024579632628332</v>
       </c>
       <c r="M21">
-        <v>1.007267546491588</v>
+        <v>1.02476874242445</v>
       </c>
       <c r="N21">
-        <v>1.009573194587806</v>
+        <v>1.027269645131166</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9714800594632798</v>
+        <v>0.9925993664716491</v>
       </c>
       <c r="D22">
-        <v>0.997037302712616</v>
+        <v>1.014301102639888</v>
       </c>
       <c r="E22">
-        <v>0.9872097372215315</v>
+        <v>1.006743703267812</v>
       </c>
       <c r="F22">
-        <v>0.9860735061214245</v>
+        <v>1.006422583052515</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035880926125805</v>
+        <v>1.044239889119563</v>
       </c>
       <c r="J22">
-        <v>1.003525141314776</v>
+        <v>1.023667852759008</v>
       </c>
       <c r="K22">
-        <v>1.012667680579727</v>
+        <v>1.029594477608823</v>
       </c>
       <c r="L22">
-        <v>1.00303890238967</v>
+        <v>1.022182739475221</v>
       </c>
       <c r="M22">
-        <v>1.001925991636625</v>
+        <v>1.021867872069606</v>
       </c>
       <c r="N22">
-        <v>1.004950262121386</v>
+        <v>1.025121578526269</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9747903176134249</v>
+        <v>0.9944915237370356</v>
       </c>
       <c r="D23">
-        <v>0.9995777945609831</v>
+        <v>1.015719953514672</v>
       </c>
       <c r="E23">
-        <v>0.9901033505444709</v>
+        <v>1.008360082651039</v>
       </c>
       <c r="F23">
-        <v>0.9893089094338887</v>
+        <v>1.00831237193679</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037103894065148</v>
+        <v>1.044934477515322</v>
       </c>
       <c r="J23">
-        <v>1.005990066430983</v>
+        <v>1.024810058156647</v>
       </c>
       <c r="K23">
-        <v>1.014844614521786</v>
+        <v>1.030680544309911</v>
       </c>
       <c r="L23">
-        <v>1.005556020915087</v>
+        <v>1.023458706297205</v>
       </c>
       <c r="M23">
-        <v>1.004777376203272</v>
+        <v>1.023411898980711</v>
       </c>
       <c r="N23">
-        <v>1.007418687713989</v>
+        <v>1.026265405986585</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9873228564291193</v>
+        <v>1.001766257259223</v>
       </c>
       <c r="D24">
-        <v>1.009209831240602</v>
+        <v>1.021183123561456</v>
       </c>
       <c r="E24">
-        <v>1.001080710762917</v>
+        <v>1.014591021182191</v>
       </c>
       <c r="F24">
-        <v>1.001584446302627</v>
+        <v>1.015597343229252</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041705669054925</v>
+        <v>1.047583710581624</v>
       </c>
       <c r="J24">
-        <v>1.015317789701872</v>
+        <v>1.02919648567401</v>
       </c>
       <c r="K24">
-        <v>1.023077119513849</v>
+        <v>1.034848178905344</v>
       </c>
       <c r="L24">
-        <v>1.015088874452174</v>
+        <v>1.02836665733187</v>
       </c>
       <c r="M24">
-        <v>1.015583794305063</v>
+        <v>1.029355978820109</v>
       </c>
       <c r="N24">
-        <v>1.016759657421827</v>
+        <v>1.030658062734154</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000958671042316</v>
+        <v>1.009873762255264</v>
       </c>
       <c r="D25">
-        <v>1.01971086397287</v>
+        <v>1.027285806918846</v>
       </c>
       <c r="E25">
-        <v>1.013064142071681</v>
+        <v>1.021566990356558</v>
       </c>
       <c r="F25">
-        <v>1.014989974540554</v>
+        <v>1.023754507941365</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046651515253811</v>
+        <v>1.050491148639577</v>
       </c>
       <c r="J25">
-        <v>1.02545381509906</v>
+        <v>1.034073343494155</v>
       </c>
       <c r="K25">
-        <v>1.032010710210176</v>
+        <v>1.039474813499604</v>
       </c>
       <c r="L25">
-        <v>1.025462983483574</v>
+        <v>1.033839483944163</v>
       </c>
       <c r="M25">
-        <v>1.027359963208349</v>
+        <v>1.035994926941872</v>
       </c>
       <c r="N25">
-        <v>1.026910077137698</v>
+        <v>1.035541846251787</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016095082511975</v>
+        <v>1.009933434710107</v>
       </c>
       <c r="D2">
-        <v>1.031977735181159</v>
+        <v>1.025407089665062</v>
       </c>
       <c r="E2">
-        <v>1.026943744466703</v>
+        <v>1.023341732824011</v>
       </c>
       <c r="F2">
-        <v>1.030043484281751</v>
+        <v>1.030490503868875</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052684465217017</v>
+        <v>1.048656616582548</v>
       </c>
       <c r="J2">
-        <v>1.037804823024337</v>
+        <v>1.031821044085546</v>
       </c>
       <c r="K2">
-        <v>1.043008844862195</v>
+        <v>1.036523457135336</v>
       </c>
       <c r="L2">
-        <v>1.038040050585102</v>
+        <v>1.034485182933109</v>
       </c>
       <c r="M2">
-        <v>1.041099550585775</v>
+        <v>1.041540792099781</v>
       </c>
       <c r="N2">
-        <v>1.039278624910908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014513517432403</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04144914041563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020481129036426</v>
+        <v>1.013353649428524</v>
       </c>
       <c r="D3">
-        <v>1.035289722631473</v>
+        <v>1.027797408055215</v>
       </c>
       <c r="E3">
-        <v>1.030747338011893</v>
+        <v>1.026032319714687</v>
       </c>
       <c r="F3">
-        <v>1.034493864105659</v>
+        <v>1.033197407338099</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054208147013708</v>
+        <v>1.049582088551962</v>
       </c>
       <c r="J3">
-        <v>1.040428613396562</v>
+        <v>1.033486783679622</v>
       </c>
       <c r="K3">
-        <v>1.045490130450988</v>
+        <v>1.038086553292242</v>
       </c>
       <c r="L3">
-        <v>1.041001354107725</v>
+        <v>1.036342604280967</v>
       </c>
       <c r="M3">
-        <v>1.044703622372352</v>
+        <v>1.043422435716187</v>
       </c>
       <c r="N3">
-        <v>1.041906141366415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015070892559568</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.042938331689611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023261844440104</v>
+        <v>1.015528161307961</v>
       </c>
       <c r="D4">
-        <v>1.037391097130492</v>
+        <v>1.029318842881169</v>
       </c>
       <c r="E4">
-        <v>1.033164556860213</v>
+        <v>1.027748836433408</v>
       </c>
       <c r="F4">
-        <v>1.037322931563353</v>
+        <v>1.034926586598967</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055163426265635</v>
+        <v>1.050160159647182</v>
       </c>
       <c r="J4">
-        <v>1.042088663502089</v>
+        <v>1.034542826412598</v>
       </c>
       <c r="K4">
-        <v>1.047058254489739</v>
+        <v>1.039075838292598</v>
       </c>
       <c r="L4">
-        <v>1.042878536990514</v>
+        <v>1.037523506764322</v>
       </c>
       <c r="M4">
-        <v>1.046990840358935</v>
+        <v>1.044620989319308</v>
       </c>
       <c r="N4">
-        <v>1.043568548933502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015424210520997</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.043886902693216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024417596039774</v>
+        <v>1.016433326126478</v>
       </c>
       <c r="D5">
-        <v>1.038264831937245</v>
+        <v>1.029952531164903</v>
       </c>
       <c r="E5">
-        <v>1.034170581493753</v>
+        <v>1.028464740629861</v>
       </c>
       <c r="F5">
-        <v>1.03850057698504</v>
+        <v>1.035648312020371</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055557859316842</v>
+        <v>1.050398273432454</v>
       </c>
       <c r="J5">
-        <v>1.042777782929031</v>
+        <v>1.03498166910849</v>
       </c>
       <c r="K5">
-        <v>1.047708780231927</v>
+        <v>1.039486526260324</v>
       </c>
       <c r="L5">
-        <v>1.043658660752792</v>
+        <v>1.038015041515107</v>
       </c>
       <c r="M5">
-        <v>1.047941997219852</v>
+        <v>1.045120413832451</v>
       </c>
       <c r="N5">
-        <v>1.044258646989074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015571020867312</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044282161757081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024610887379223</v>
+        <v>1.016584786326564</v>
       </c>
       <c r="D6">
-        <v>1.038410976519655</v>
+        <v>1.030058586432979</v>
       </c>
       <c r="E6">
-        <v>1.03433891071371</v>
+        <v>1.028584612669164</v>
       </c>
       <c r="F6">
-        <v>1.038697635058556</v>
+        <v>1.035769190499367</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055623670912358</v>
+        <v>1.050437967867411</v>
       </c>
       <c r="J6">
-        <v>1.042892982533452</v>
+        <v>1.035055055513793</v>
       </c>
       <c r="K6">
-        <v>1.047817502387843</v>
+        <v>1.039555179863461</v>
       </c>
       <c r="L6">
-        <v>1.043789124734166</v>
+        <v>1.038097287012787</v>
       </c>
       <c r="M6">
-        <v>1.04810110124436</v>
+        <v>1.04520401145429</v>
       </c>
       <c r="N6">
-        <v>1.044374010190147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.0155955707773</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04434832332193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023277339152483</v>
+        <v>1.015540291216118</v>
       </c>
       <c r="D7">
-        <v>1.037402809676789</v>
+        <v>1.029327333365233</v>
       </c>
       <c r="E7">
-        <v>1.03317803893586</v>
+        <v>1.027758424671613</v>
       </c>
       <c r="F7">
-        <v>1.037338712721328</v>
+        <v>1.034936250671947</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055168724638524</v>
+        <v>1.050163360532241</v>
       </c>
       <c r="J7">
-        <v>1.042097905651579</v>
+        <v>1.034548710226301</v>
       </c>
       <c r="K7">
-        <v>1.047066980764598</v>
+        <v>1.039081346264888</v>
       </c>
       <c r="L7">
-        <v>1.042888996207361</v>
+        <v>1.037530093858484</v>
       </c>
       <c r="M7">
-        <v>1.0470035901362</v>
+        <v>1.044627679998542</v>
       </c>
       <c r="N7">
-        <v>1.043577804207904</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015426178941268</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.043892197892485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017589531636541</v>
+        <v>1.011097451196425</v>
       </c>
       <c r="D8">
-        <v>1.033105857323459</v>
+        <v>1.026220215914255</v>
       </c>
       <c r="E8">
-        <v>1.02823850508491</v>
+        <v>1.024256182055718</v>
       </c>
       <c r="F8">
-        <v>1.031558255990134</v>
+        <v>1.031410027879258</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053205850933141</v>
+        <v>1.048973725208002</v>
       </c>
       <c r="J8">
-        <v>1.038699518071253</v>
+        <v>1.032388565424142</v>
       </c>
       <c r="K8">
-        <v>1.043855311073531</v>
+        <v>1.037056355109662</v>
       </c>
       <c r="L8">
-        <v>1.039049085326788</v>
+        <v>1.03511731393645</v>
       </c>
       <c r="M8">
-        <v>1.042327067258029</v>
+        <v>1.042180696996709</v>
       </c>
       <c r="N8">
-        <v>1.040174590527414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01470342521182</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041955581394239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007105394751541</v>
+        <v>1.00296176250916</v>
       </c>
       <c r="D9">
-        <v>1.025200428170798</v>
+        <v>1.020545783371497</v>
       </c>
       <c r="E9">
-        <v>1.019181140154798</v>
+        <v>1.017890845603057</v>
       </c>
       <c r="F9">
-        <v>1.020964451024733</v>
+        <v>1.025018842049848</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049504226810926</v>
+        <v>1.046715277167362</v>
       </c>
       <c r="J9">
-        <v>1.032409714327756</v>
+        <v>1.028410365076577</v>
       </c>
       <c r="K9">
-        <v>1.03789746164521</v>
+        <v>1.033314087989755</v>
       </c>
       <c r="L9">
-        <v>1.031970497552157</v>
+        <v>1.030700175106465</v>
       </c>
       <c r="M9">
-        <v>1.033726311125797</v>
+        <v>1.037718640471258</v>
       </c>
       <c r="N9">
-        <v>1.03387585454115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013372073358375</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038424161296998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9997725948130446</v>
+        <v>0.9973734853114431</v>
       </c>
       <c r="D10">
-        <v>1.019684677187042</v>
+        <v>1.016667655029993</v>
       </c>
       <c r="E10">
-        <v>1.012880782322893</v>
+        <v>1.013592728727706</v>
       </c>
       <c r="F10">
-        <v>1.013597753636628</v>
+        <v>1.020767404408708</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046861209891044</v>
+        <v>1.045128349729327</v>
       </c>
       <c r="J10">
-        <v>1.027995238066396</v>
+        <v>1.025691700524475</v>
       </c>
       <c r="K10">
-        <v>1.033707387336584</v>
+        <v>1.030742352650375</v>
       </c>
       <c r="L10">
-        <v>1.027021300692623</v>
+        <v>1.027720823937758</v>
       </c>
       <c r="M10">
-        <v>1.027725761244482</v>
+        <v>1.034771554492999</v>
       </c>
       <c r="N10">
-        <v>1.029455109217152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012465773122452</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.036143314323713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9965079647370779</v>
+        <v>0.9953681941533609</v>
       </c>
       <c r="D11">
-        <v>1.017232983096039</v>
+        <v>1.015334874948583</v>
       </c>
       <c r="E11">
-        <v>1.010084564010162</v>
+        <v>1.01238079233037</v>
       </c>
       <c r="F11">
-        <v>1.01032853896277</v>
+        <v>1.019990175324484</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045672274646167</v>
+        <v>1.044673492424719</v>
       </c>
       <c r="J11">
-        <v>1.026026741511728</v>
+        <v>1.024934939266934</v>
       </c>
       <c r="K11">
-        <v>1.031837067212271</v>
+        <v>1.029973278673163</v>
       </c>
       <c r="L11">
-        <v>1.024818773549994</v>
+        <v>1.027072941947049</v>
       </c>
       <c r="M11">
-        <v>1.025058267798946</v>
+        <v>1.034544702305011</v>
       </c>
       <c r="N11">
-        <v>1.027483817171587</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012244859080853</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.036401042326526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9952811566893534</v>
+        <v>0.9947938911502622</v>
       </c>
       <c r="D12">
-        <v>1.016312332281137</v>
+        <v>1.014979567127596</v>
       </c>
       <c r="E12">
-        <v>1.00903514655645</v>
+        <v>1.012180401778956</v>
       </c>
       <c r="F12">
-        <v>1.009101618889874</v>
+        <v>1.02009863380805</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04522369943586</v>
+        <v>1.044599068806039</v>
       </c>
       <c r="J12">
-        <v>1.025286577865026</v>
+        <v>1.02482022889203</v>
       </c>
       <c r="K12">
-        <v>1.031133547361918</v>
+        <v>1.029825301280058</v>
       </c>
       <c r="L12">
-        <v>1.023991270687436</v>
+        <v>1.027077906750706</v>
       </c>
       <c r="M12">
-        <v>1.024056499219903</v>
+        <v>1.034850646582412</v>
       </c>
       <c r="N12">
-        <v>1.026742602407608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012232085009442</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036970043495499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9955449651914168</v>
+        <v>0.9952830546550836</v>
       </c>
       <c r="D13">
-        <v>1.016510274569771</v>
+        <v>1.015352591732265</v>
       </c>
       <c r="E13">
-        <v>1.009260746983074</v>
+        <v>1.012746954929661</v>
       </c>
       <c r="F13">
-        <v>1.009365378162237</v>
+        <v>1.020908934136072</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045320239415287</v>
+        <v>1.044817237002479</v>
       </c>
       <c r="J13">
-        <v>1.025445758618688</v>
+        <v>1.025195037700998</v>
       </c>
       <c r="K13">
-        <v>1.031284859477356</v>
+        <v>1.030148387903969</v>
       </c>
       <c r="L13">
-        <v>1.024169205135788</v>
+        <v>1.027590723271457</v>
       </c>
       <c r="M13">
-        <v>1.024271886299643</v>
+        <v>1.035603496422181</v>
       </c>
       <c r="N13">
-        <v>1.026902009216199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012379652586884</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.037842368718857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9964068500854638</v>
+        <v>0.9961047453161752</v>
       </c>
       <c r="D14">
-        <v>1.017157088259955</v>
+        <v>1.015941624811061</v>
       </c>
       <c r="E14">
-        <v>1.009998041960527</v>
+        <v>1.013486961572923</v>
       </c>
       <c r="F14">
-        <v>1.010227382143293</v>
+        <v>1.02178990237055</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045635338702751</v>
+        <v>1.04510075583557</v>
       </c>
       <c r="J14">
-        <v>1.025965744955713</v>
+        <v>1.025676361178293</v>
       </c>
       <c r="K14">
-        <v>1.031779095887545</v>
+        <v>1.030585622931139</v>
       </c>
       <c r="L14">
-        <v>1.024750566079339</v>
+        <v>1.028175579442617</v>
       </c>
       <c r="M14">
-        <v>1.024975687798568</v>
+        <v>1.036328714760202</v>
       </c>
       <c r="N14">
-        <v>1.027422733993466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012554543038992</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038589134858839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9969359840773231</v>
+        <v>0.9965391730597367</v>
       </c>
       <c r="D15">
-        <v>1.017554274265437</v>
+        <v>1.016246500733028</v>
       </c>
       <c r="E15">
-        <v>1.010450868759973</v>
+        <v>1.013841990275946</v>
       </c>
       <c r="F15">
-        <v>1.010756802657071</v>
+        <v>1.022173418831549</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045828552297956</v>
+        <v>1.045235832103606</v>
       </c>
       <c r="J15">
-        <v>1.026284923419425</v>
+        <v>1.025904673501584</v>
       </c>
       <c r="K15">
-        <v>1.032082433168122</v>
+        <v>1.030798137512833</v>
       </c>
       <c r="L15">
-        <v>1.025107504064682</v>
+        <v>1.02843699970503</v>
       </c>
       <c r="M15">
-        <v>1.025407856225234</v>
+        <v>1.03661927602904</v>
       </c>
       <c r="N15">
-        <v>1.027742365727207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012633702424309</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.038856360305937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9999873106745337</v>
+        <v>0.9988048879950155</v>
       </c>
       <c r="D16">
-        <v>1.019846014460152</v>
+        <v>1.017810953212086</v>
       </c>
       <c r="E16">
-        <v>1.013064877346013</v>
+        <v>1.015552322684119</v>
       </c>
       <c r="F16">
-        <v>1.013812992628402</v>
+        <v>1.023847500828239</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04693915581009</v>
+        <v>1.045877748105147</v>
       </c>
       <c r="J16">
-        <v>1.028124645179417</v>
+        <v>1.026989065603007</v>
       </c>
       <c r="K16">
-        <v>1.03383030216299</v>
+        <v>1.031830147364043</v>
       </c>
       <c r="L16">
-        <v>1.027166184156526</v>
+        <v>1.029610469961237</v>
       </c>
       <c r="M16">
-        <v>1.027901290105323</v>
+        <v>1.037763675178561</v>
       </c>
       <c r="N16">
-        <v>1.029584700103117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012990962631212</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039722144345418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001876867329941</v>
+        <v>1.000114618806413</v>
       </c>
       <c r="D17">
-        <v>1.02126628533722</v>
+        <v>1.018704438365272</v>
       </c>
       <c r="E17">
-        <v>1.014685965576832</v>
+        <v>1.016478372772745</v>
       </c>
       <c r="F17">
-        <v>1.015708352788375</v>
+        <v>1.024666155426683</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047623713262965</v>
+        <v>1.046219453481728</v>
       </c>
       <c r="J17">
-        <v>1.029263110869947</v>
+        <v>1.027568393095139</v>
       </c>
       <c r="K17">
-        <v>1.034911438327145</v>
+        <v>1.032392271000135</v>
       </c>
       <c r="L17">
-        <v>1.0284413049237</v>
+        <v>1.030203516270251</v>
       </c>
       <c r="M17">
-        <v>1.02944645161342</v>
+        <v>1.038255091478681</v>
       </c>
       <c r="N17">
-        <v>1.030724782545511</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013173136777312</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039981436316894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002970432612679</v>
+        <v>1.000716065337992</v>
       </c>
       <c r="D18">
-        <v>1.022088627267861</v>
+        <v>1.01909440555852</v>
       </c>
       <c r="E18">
-        <v>1.015624984671155</v>
+        <v>1.016788107632397</v>
       </c>
       <c r="F18">
-        <v>1.016806271639106</v>
+        <v>1.024770502434848</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048018730255164</v>
+        <v>1.046328820921243</v>
       </c>
       <c r="J18">
-        <v>1.029921688372262</v>
+        <v>1.027752047854941</v>
       </c>
       <c r="K18">
-        <v>1.035536672041707</v>
+        <v>1.032591488045942</v>
       </c>
       <c r="L18">
-        <v>1.029179352970881</v>
+        <v>1.03032321480621</v>
       </c>
       <c r="M18">
-        <v>1.030341078469686</v>
+        <v>1.038174937327033</v>
       </c>
       <c r="N18">
-        <v>1.03138429530342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01321576327871</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.03968015685994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003341876124025</v>
+        <v>1.000669705579079</v>
       </c>
       <c r="D19">
-        <v>1.022368007345942</v>
+        <v>1.019023046330386</v>
       </c>
       <c r="E19">
-        <v>1.015944073497965</v>
+        <v>1.016528336543376</v>
       </c>
       <c r="F19">
-        <v>1.017179361718056</v>
+        <v>1.02421184916148</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048152703758199</v>
+        <v>1.046226571842945</v>
       </c>
       <c r="J19">
-        <v>1.030145330513956</v>
+        <v>1.027572956671975</v>
       </c>
       <c r="K19">
-        <v>1.035748960287692</v>
+        <v>1.03245847460224</v>
       </c>
       <c r="L19">
-        <v>1.029430053173884</v>
+        <v>1.030004693349659</v>
       </c>
       <c r="M19">
-        <v>1.030645012822652</v>
+        <v>1.037562968939816</v>
       </c>
       <c r="N19">
-        <v>1.031608255042607</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013131803863047</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038870346308044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001675028527983</v>
+        <v>0.998822245644015</v>
       </c>
       <c r="D20">
-        <v>1.021114535669235</v>
+        <v>1.017672305086437</v>
       </c>
       <c r="E20">
-        <v>1.014512717828637</v>
+        <v>1.014706268337887</v>
       </c>
       <c r="F20">
-        <v>1.015505790632889</v>
+        <v>1.021870697836116</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047550710659891</v>
+        <v>1.045544101514711</v>
       </c>
       <c r="J20">
-        <v>1.029141532987333</v>
+        <v>1.026398643361028</v>
       </c>
       <c r="K20">
-        <v>1.034796001300696</v>
+        <v>1.031411366668562</v>
       </c>
       <c r="L20">
-        <v>1.028305090115355</v>
+        <v>1.028495362589719</v>
       </c>
       <c r="M20">
-        <v>1.029281360997991</v>
+        <v>1.035539578187097</v>
       </c>
       <c r="N20">
-        <v>1.030603032008359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012701602862577</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.036740547010178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9961534440446994</v>
+        <v>0.9945423144879491</v>
       </c>
       <c r="D21">
-        <v>1.016966897218869</v>
+        <v>1.014696773344641</v>
       </c>
       <c r="E21">
-        <v>1.009781229019861</v>
+        <v>1.01136468082536</v>
       </c>
       <c r="F21">
-        <v>1.009973896486621</v>
+        <v>1.018487374486097</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045542743956793</v>
+        <v>1.044287529671614</v>
       </c>
       <c r="J21">
-        <v>1.025812873188856</v>
+        <v>1.024270004897734</v>
       </c>
       <c r="K21">
-        <v>1.031633801743627</v>
+        <v>1.029404959620755</v>
       </c>
       <c r="L21">
-        <v>1.024579632628332</v>
+        <v>1.026133897840013</v>
       </c>
       <c r="M21">
-        <v>1.02476874242445</v>
+        <v>1.033126763224527</v>
       </c>
       <c r="N21">
-        <v>1.027269645131166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011986263538619</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.034789978554608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9925993664716491</v>
+        <v>0.9918285305671675</v>
       </c>
       <c r="D22">
-        <v>1.014301102639888</v>
+        <v>1.012817007078782</v>
       </c>
       <c r="E22">
-        <v>1.006743703267812</v>
+        <v>1.009273777236124</v>
       </c>
       <c r="F22">
-        <v>1.006422583052515</v>
+        <v>1.016398899985574</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044239889119563</v>
+        <v>1.043488423408714</v>
       </c>
       <c r="J22">
-        <v>1.023667852759008</v>
+        <v>1.02293161511356</v>
       </c>
       <c r="K22">
-        <v>1.029594477608823</v>
+        <v>1.028138761977733</v>
       </c>
       <c r="L22">
-        <v>1.022182739475221</v>
+        <v>1.02466373054154</v>
       </c>
       <c r="M22">
-        <v>1.021867872069606</v>
+        <v>1.031652344231239</v>
       </c>
       <c r="N22">
-        <v>1.025121578526269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.01153828943839</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.033623064471379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9944915237370356</v>
+        <v>0.9932721642705961</v>
       </c>
       <c r="D23">
-        <v>1.015719953514672</v>
+        <v>1.013816627081239</v>
       </c>
       <c r="E23">
-        <v>1.008360082651039</v>
+        <v>1.010385310591434</v>
       </c>
       <c r="F23">
-        <v>1.00831237193679</v>
+        <v>1.01750890341678</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044934477515322</v>
+        <v>1.043914444435611</v>
       </c>
       <c r="J23">
-        <v>1.024810058156647</v>
+        <v>1.023643790734628</v>
       </c>
       <c r="K23">
-        <v>1.030680544309911</v>
+        <v>1.028812663635847</v>
       </c>
       <c r="L23">
-        <v>1.023458706297205</v>
+        <v>1.025445689521303</v>
       </c>
       <c r="M23">
-        <v>1.023411898980711</v>
+        <v>1.032436336094991</v>
       </c>
       <c r="N23">
-        <v>1.026265405986585</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011776661974528</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.034243547187585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001766257259223</v>
+        <v>0.9988467344844169</v>
       </c>
       <c r="D24">
-        <v>1.021183123561456</v>
+        <v>1.017683926776316</v>
       </c>
       <c r="E24">
-        <v>1.014591021182191</v>
+        <v>1.014693642598188</v>
       </c>
       <c r="F24">
-        <v>1.015597343229252</v>
+        <v>1.021816523060704</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047583710581624</v>
+        <v>1.045539022214549</v>
       </c>
       <c r="J24">
-        <v>1.02919648567401</v>
+        <v>1.026389250807136</v>
       </c>
       <c r="K24">
-        <v>1.034848178905344</v>
+        <v>1.031407450251086</v>
       </c>
       <c r="L24">
-        <v>1.02836665733187</v>
+        <v>1.028467543094425</v>
       </c>
       <c r="M24">
-        <v>1.029355978820109</v>
+        <v>1.035471050040293</v>
       </c>
       <c r="N24">
-        <v>1.030658062734154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012695600947794</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036645336808748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009873762255264</v>
+        <v>1.005103037002693</v>
       </c>
       <c r="D25">
-        <v>1.027285806918846</v>
+        <v>1.022037228016608</v>
       </c>
       <c r="E25">
-        <v>1.021566990356558</v>
+        <v>1.019560368569276</v>
       </c>
       <c r="F25">
-        <v>1.023754507941365</v>
+        <v>1.02669306068323</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050491148639577</v>
+        <v>1.04731880759556</v>
       </c>
       <c r="J25">
-        <v>1.034073343494155</v>
+        <v>1.029459875642033</v>
       </c>
       <c r="K25">
-        <v>1.039474813499604</v>
+        <v>1.034302812012533</v>
       </c>
       <c r="L25">
-        <v>1.033839483944163</v>
+        <v>1.031862438114805</v>
       </c>
       <c r="M25">
-        <v>1.035994926941872</v>
+        <v>1.038890665778566</v>
       </c>
       <c r="N25">
-        <v>1.035541846251787</v>
+        <v>1.013723331225161</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039351742826499</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009933434710107</v>
+        <v>1.009591997439601</v>
       </c>
       <c r="D2">
-        <v>1.025407089665062</v>
+        <v>1.024594914207092</v>
       </c>
       <c r="E2">
-        <v>1.023341732824011</v>
+        <v>1.023070917742312</v>
       </c>
       <c r="F2">
-        <v>1.030490503868875</v>
+        <v>1.030270952911592</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048656616582548</v>
+        <v>1.048262726705816</v>
       </c>
       <c r="J2">
-        <v>1.031821044085546</v>
+        <v>1.031489550209092</v>
       </c>
       <c r="K2">
-        <v>1.036523457135336</v>
+        <v>1.035721915258849</v>
       </c>
       <c r="L2">
-        <v>1.034485182933109</v>
+        <v>1.034217929165054</v>
       </c>
       <c r="M2">
-        <v>1.041540792099781</v>
+        <v>1.04132407822409</v>
       </c>
       <c r="N2">
-        <v>1.014513517432403</v>
+        <v>1.015552253109434</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04144914041563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041277626118386</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021603821977638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013353649428524</v>
+        <v>1.01288163929504</v>
       </c>
       <c r="D3">
-        <v>1.027797408055215</v>
+        <v>1.02679328174646</v>
       </c>
       <c r="E3">
-        <v>1.026032319714687</v>
+        <v>1.025655440942359</v>
       </c>
       <c r="F3">
-        <v>1.033197407338099</v>
+        <v>1.032892660147392</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049582088551962</v>
+        <v>1.049082328880761</v>
       </c>
       <c r="J3">
-        <v>1.033486783679622</v>
+        <v>1.033027193175327</v>
       </c>
       <c r="K3">
-        <v>1.038086553292242</v>
+        <v>1.03709444170388</v>
       </c>
       <c r="L3">
-        <v>1.036342604280967</v>
+        <v>1.035970250839725</v>
       </c>
       <c r="M3">
-        <v>1.043422435716187</v>
+        <v>1.043121284832933</v>
       </c>
       <c r="N3">
-        <v>1.015070892559568</v>
+        <v>1.015961104198287</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042938331689611</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042699991720721</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021868758789788</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015528161307961</v>
+        <v>1.014973904257748</v>
       </c>
       <c r="D4">
-        <v>1.029318842881169</v>
+        <v>1.028193252068925</v>
       </c>
       <c r="E4">
-        <v>1.027748836433408</v>
+        <v>1.027305078908202</v>
       </c>
       <c r="F4">
-        <v>1.034926586598967</v>
+        <v>1.034568161118055</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050160159647182</v>
+        <v>1.049593304811429</v>
       </c>
       <c r="J4">
-        <v>1.034542826412598</v>
+        <v>1.034002179914377</v>
       </c>
       <c r="K4">
-        <v>1.039075838292598</v>
+        <v>1.037962912481609</v>
       </c>
       <c r="L4">
-        <v>1.037523506764322</v>
+        <v>1.037084757067683</v>
       </c>
       <c r="M4">
-        <v>1.044620989319308</v>
+        <v>1.044266539556962</v>
       </c>
       <c r="N4">
-        <v>1.015424210520997</v>
+        <v>1.016220341854064</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.043886902693216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043606380727581</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022033818320943</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016433326126478</v>
+        <v>1.015845005858919</v>
       </c>
       <c r="D5">
-        <v>1.029952531164903</v>
+        <v>1.028776510659912</v>
       </c>
       <c r="E5">
-        <v>1.028464740629861</v>
+        <v>1.027993270435499</v>
       </c>
       <c r="F5">
-        <v>1.035648312020371</v>
+        <v>1.035267653189297</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050398273432454</v>
+        <v>1.049803537788171</v>
       </c>
       <c r="J5">
-        <v>1.03498166910849</v>
+        <v>1.034407370114346</v>
       </c>
       <c r="K5">
-        <v>1.039486526260324</v>
+        <v>1.038323389830794</v>
       </c>
       <c r="L5">
-        <v>1.038015041515107</v>
+        <v>1.037548750607333</v>
       </c>
       <c r="M5">
-        <v>1.045120413832451</v>
+        <v>1.044743865394645</v>
       </c>
       <c r="N5">
-        <v>1.015571020867312</v>
+        <v>1.016328075009372</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044282161757081</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04398415040762</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022101702806044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016584786326564</v>
+        <v>1.015990776139685</v>
       </c>
       <c r="D6">
-        <v>1.030058586432979</v>
+        <v>1.028874135112297</v>
       </c>
       <c r="E6">
-        <v>1.028584612669164</v>
+        <v>1.028108512580676</v>
       </c>
       <c r="F6">
-        <v>1.035769190499367</v>
+        <v>1.03538481772382</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050437967867411</v>
+        <v>1.049838569704704</v>
       </c>
       <c r="J6">
-        <v>1.035055055513793</v>
+        <v>1.034475130526797</v>
       </c>
       <c r="K6">
-        <v>1.039555179863461</v>
+        <v>1.038383646329683</v>
       </c>
       <c r="L6">
-        <v>1.038097287012787</v>
+        <v>1.037626393227805</v>
       </c>
       <c r="M6">
-        <v>1.04520401145429</v>
+        <v>1.044823770283321</v>
       </c>
       <c r="N6">
-        <v>1.0155955707773</v>
+        <v>1.016346091194049</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04434832332193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044047389463049</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02211301310395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015540291216118</v>
+        <v>1.01499222771295</v>
       </c>
       <c r="D7">
-        <v>1.029327333365233</v>
+        <v>1.028206238584047</v>
       </c>
       <c r="E7">
-        <v>1.027758424671613</v>
+        <v>1.027319828677976</v>
       </c>
       <c r="F7">
-        <v>1.034936250671947</v>
+        <v>1.034581938408947</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050163360532241</v>
+        <v>1.049599768658786</v>
       </c>
       <c r="J7">
-        <v>1.034548710226301</v>
+        <v>1.034014099734852</v>
       </c>
       <c r="K7">
-        <v>1.039081346264888</v>
+        <v>1.037972861364439</v>
       </c>
       <c r="L7">
-        <v>1.037530093858484</v>
+        <v>1.037096445649387</v>
       </c>
       <c r="M7">
-        <v>1.044627679998542</v>
+        <v>1.044277296411354</v>
       </c>
       <c r="N7">
-        <v>1.015426178941268</v>
+        <v>1.016249305032429</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.043892197892485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043614894020073</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022036244612935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011097451196425</v>
+        <v>1.010731808317871</v>
       </c>
       <c r="D8">
-        <v>1.026220215914255</v>
+        <v>1.025358455641996</v>
       </c>
       <c r="E8">
-        <v>1.024256182055718</v>
+        <v>1.02396614617639</v>
       </c>
       <c r="F8">
-        <v>1.031410027879258</v>
+        <v>1.031174922584663</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048973725208002</v>
+        <v>1.048554888336232</v>
       </c>
       <c r="J8">
-        <v>1.032388565424142</v>
+        <v>1.032033218517232</v>
       </c>
       <c r="K8">
-        <v>1.037056355109662</v>
+        <v>1.03620554616913</v>
       </c>
       <c r="L8">
-        <v>1.03511731393645</v>
+        <v>1.03483097896663</v>
       </c>
       <c r="M8">
-        <v>1.042180696996709</v>
+        <v>1.041948539811841</v>
       </c>
       <c r="N8">
-        <v>1.01470342521182</v>
+        <v>1.015775206007916</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041955581394239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04177184489486</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02169934497475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00296176250916</v>
+        <v>1.002914518365956</v>
       </c>
       <c r="D9">
-        <v>1.020545783371497</v>
+        <v>1.020146427284506</v>
       </c>
       <c r="E9">
-        <v>1.017890845603057</v>
+        <v>1.01785901059183</v>
       </c>
       <c r="F9">
-        <v>1.025018842049848</v>
+        <v>1.024991399064731</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046715277167362</v>
+        <v>1.046551168678171</v>
       </c>
       <c r="J9">
-        <v>1.028410365076577</v>
+        <v>1.02836477560791</v>
       </c>
       <c r="K9">
-        <v>1.033314087989755</v>
+        <v>1.03292088545171</v>
       </c>
       <c r="L9">
-        <v>1.030700175106465</v>
+        <v>1.030668833678116</v>
       </c>
       <c r="M9">
-        <v>1.037718640471258</v>
+        <v>1.037691615459315</v>
       </c>
       <c r="N9">
-        <v>1.013372073358375</v>
+        <v>1.014809238741963</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038424161296998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038402772749868</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021051127443859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9973734853114431</v>
+        <v>0.9975775876265562</v>
       </c>
       <c r="D10">
-        <v>1.016667655029993</v>
+        <v>1.016610075313994</v>
       </c>
       <c r="E10">
-        <v>1.013592728727706</v>
+        <v>1.013764616388619</v>
       </c>
       <c r="F10">
-        <v>1.020767404408708</v>
+        <v>1.020903956284529</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045128349729327</v>
+        <v>1.045155220729211</v>
       </c>
       <c r="J10">
-        <v>1.025691700524475</v>
+        <v>1.025887646782081</v>
       </c>
       <c r="K10">
-        <v>1.030742352650375</v>
+        <v>1.030685768994693</v>
       </c>
       <c r="L10">
-        <v>1.027720823937758</v>
+        <v>1.027889715618468</v>
       </c>
       <c r="M10">
-        <v>1.034771554492999</v>
+        <v>1.034905769214418</v>
       </c>
       <c r="N10">
-        <v>1.012465773122452</v>
+        <v>1.014269923573634</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036143314323713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036249530257369</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020602800337862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9953681941533609</v>
+        <v>0.9956953581498237</v>
       </c>
       <c r="D11">
-        <v>1.015334874948583</v>
+        <v>1.015418635464955</v>
       </c>
       <c r="E11">
-        <v>1.01238079233037</v>
+        <v>1.012651615509407</v>
       </c>
       <c r="F11">
-        <v>1.019990175324484</v>
+        <v>1.020206357127545</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044673492424719</v>
+        <v>1.044784040609681</v>
       </c>
       <c r="J11">
-        <v>1.024934939266934</v>
+        <v>1.025248318249723</v>
       </c>
       <c r="K11">
-        <v>1.029973278673163</v>
+        <v>1.030055521199851</v>
       </c>
       <c r="L11">
-        <v>1.027072941947049</v>
+        <v>1.02733882083739</v>
       </c>
       <c r="M11">
-        <v>1.034544702305011</v>
+        <v>1.03475701321453</v>
       </c>
       <c r="N11">
-        <v>1.012244859080853</v>
+        <v>1.014350572859434</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036401042326526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036568977733548</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020505440625768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9947938911502622</v>
+        <v>0.99515728573511</v>
       </c>
       <c r="D12">
-        <v>1.014979567127596</v>
+        <v>1.015101326959887</v>
       </c>
       <c r="E12">
-        <v>1.012180401778956</v>
+        <v>1.012479365222674</v>
       </c>
       <c r="F12">
-        <v>1.02009863380805</v>
+        <v>1.020337596048052</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044599068806039</v>
+        <v>1.044732975754403</v>
       </c>
       <c r="J12">
-        <v>1.02482022889203</v>
+        <v>1.025168021477613</v>
       </c>
       <c r="K12">
-        <v>1.029825301280058</v>
+        <v>1.029944817596973</v>
       </c>
       <c r="L12">
-        <v>1.027077906750706</v>
+        <v>1.02737132303193</v>
       </c>
       <c r="M12">
-        <v>1.034850646582412</v>
+        <v>1.035085263722466</v>
       </c>
       <c r="N12">
-        <v>1.012232085009442</v>
+        <v>1.014448399425447</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036970043495499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037155559816613</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020504596425106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9952830546550836</v>
+        <v>0.9956094031972643</v>
       </c>
       <c r="D13">
-        <v>1.015352591732265</v>
+        <v>1.015428548372992</v>
       </c>
       <c r="E13">
-        <v>1.012746954929661</v>
+        <v>1.013014503696886</v>
       </c>
       <c r="F13">
-        <v>1.020908934136072</v>
+        <v>1.021122915494905</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044817237002479</v>
+        <v>1.044924979812361</v>
       </c>
       <c r="J13">
-        <v>1.025195037700998</v>
+        <v>1.025507444922761</v>
       </c>
       <c r="K13">
-        <v>1.030148387903969</v>
+        <v>1.030222950923092</v>
       </c>
       <c r="L13">
-        <v>1.027590723271457</v>
+        <v>1.027853331401552</v>
       </c>
       <c r="M13">
-        <v>1.035603496422181</v>
+        <v>1.035813607790085</v>
       </c>
       <c r="N13">
-        <v>1.012379652586884</v>
+        <v>1.014531366082848</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037842368718857</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038008465997257</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020578027904727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9961047453161752</v>
+        <v>0.9963727673038629</v>
       </c>
       <c r="D14">
-        <v>1.015941624811061</v>
+        <v>1.015948330275072</v>
       </c>
       <c r="E14">
-        <v>1.013486961572923</v>
+        <v>1.013706390395501</v>
       </c>
       <c r="F14">
-        <v>1.02178990237055</v>
+        <v>1.021965425752131</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04510075583557</v>
+        <v>1.045168218726343</v>
       </c>
       <c r="J14">
-        <v>1.025676361178293</v>
+        <v>1.025933096778113</v>
       </c>
       <c r="K14">
-        <v>1.030585622931139</v>
+        <v>1.030592206890355</v>
       </c>
       <c r="L14">
-        <v>1.028175579442617</v>
+        <v>1.028391008141536</v>
       </c>
       <c r="M14">
-        <v>1.036328714760202</v>
+        <v>1.036501105379008</v>
       </c>
       <c r="N14">
-        <v>1.012554543038992</v>
+        <v>1.014583229355397</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038589134858839</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038725394705487</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020662699695647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9965391730597367</v>
+        <v>0.9967775562992024</v>
       </c>
       <c r="D15">
-        <v>1.016246500733028</v>
+        <v>1.016218349396524</v>
       </c>
       <c r="E15">
-        <v>1.013841990275946</v>
+        <v>1.014037242088482</v>
       </c>
       <c r="F15">
-        <v>1.022173418831549</v>
+        <v>1.022329569521716</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045235832103606</v>
+        <v>1.045282909783422</v>
       </c>
       <c r="J15">
-        <v>1.025904673501584</v>
+        <v>1.026133105451367</v>
       </c>
       <c r="K15">
-        <v>1.030798137512833</v>
+        <v>1.03077049242815</v>
       </c>
       <c r="L15">
-        <v>1.02843699970503</v>
+        <v>1.028628719580486</v>
       </c>
       <c r="M15">
-        <v>1.03661927602904</v>
+        <v>1.036772661358648</v>
       </c>
       <c r="N15">
-        <v>1.012633702424309</v>
+        <v>1.014596799758371</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038856360305937</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038977594926383</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020700680997285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9988048879950155</v>
+        <v>0.998900877521859</v>
       </c>
       <c r="D16">
-        <v>1.017810953212086</v>
+        <v>1.017613693524138</v>
       </c>
       <c r="E16">
-        <v>1.015552322684119</v>
+        <v>1.015632463603042</v>
       </c>
       <c r="F16">
-        <v>1.023847500828239</v>
+        <v>1.023911183592296</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045877748105147</v>
+        <v>1.045826004777145</v>
       </c>
       <c r="J16">
-        <v>1.026989065603007</v>
+        <v>1.027081246532545</v>
       </c>
       <c r="K16">
-        <v>1.031830147364043</v>
+        <v>1.031636280775118</v>
       </c>
       <c r="L16">
-        <v>1.029610469961237</v>
+        <v>1.029689224906905</v>
       </c>
       <c r="M16">
-        <v>1.037763675178561</v>
+        <v>1.037826279488003</v>
       </c>
       <c r="N16">
-        <v>1.012990962631212</v>
+        <v>1.014639241375643</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039722144345418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.039771627739013</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020871782018258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000114618806413</v>
+        <v>1.000139027519989</v>
       </c>
       <c r="D17">
-        <v>1.018704438365272</v>
+        <v>1.018419084406449</v>
       </c>
       <c r="E17">
-        <v>1.016478372772745</v>
+        <v>1.016500997935541</v>
       </c>
       <c r="F17">
-        <v>1.024666155426683</v>
+        <v>1.024683537344639</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046219453481728</v>
+        <v>1.04611671803444</v>
       </c>
       <c r="J17">
-        <v>1.027568393095139</v>
+        <v>1.027591864153572</v>
       </c>
       <c r="K17">
-        <v>1.032392271000135</v>
+        <v>1.032111688084951</v>
       </c>
       <c r="L17">
-        <v>1.030203516270251</v>
+        <v>1.030225761155027</v>
       </c>
       <c r="M17">
-        <v>1.038255091478681</v>
+        <v>1.038272187219177</v>
       </c>
       <c r="N17">
-        <v>1.013173136777312</v>
+        <v>1.014672970511483</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039981436316894</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.039994950396444</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020959197197455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000716065337992</v>
+        <v>1.000714691022736</v>
       </c>
       <c r="D18">
-        <v>1.01909440555852</v>
+        <v>1.018776568793672</v>
       </c>
       <c r="E18">
-        <v>1.016788107632397</v>
+        <v>1.016790517563116</v>
       </c>
       <c r="F18">
-        <v>1.024770502434848</v>
+        <v>1.024771461734998</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046328820921243</v>
+        <v>1.046207300015378</v>
       </c>
       <c r="J18">
-        <v>1.027752047854941</v>
+        <v>1.027750725355143</v>
       </c>
       <c r="K18">
-        <v>1.032591488045942</v>
+        <v>1.03227887840344</v>
       </c>
       <c r="L18">
-        <v>1.03032321480621</v>
+        <v>1.030325584887747</v>
       </c>
       <c r="M18">
-        <v>1.038174937327033</v>
+        <v>1.038175881080475</v>
       </c>
       <c r="N18">
-        <v>1.01321576327871</v>
+        <v>1.01466092656547</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.03968015685994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.039680903047091</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020978127814256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000669705579079</v>
+        <v>1.000679333375017</v>
       </c>
       <c r="D19">
-        <v>1.019023046330386</v>
+        <v>1.018719702137485</v>
       </c>
       <c r="E19">
-        <v>1.016528336543376</v>
+        <v>1.016540519000258</v>
       </c>
       <c r="F19">
-        <v>1.02421184916148</v>
+        <v>1.024220418381841</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046226571842945</v>
+        <v>1.046113052963355</v>
       </c>
       <c r="J19">
-        <v>1.027572956671975</v>
+        <v>1.027582223554534</v>
       </c>
       <c r="K19">
-        <v>1.03245847460224</v>
+        <v>1.032160093351914</v>
       </c>
       <c r="L19">
-        <v>1.030004693349659</v>
+        <v>1.030016675311716</v>
       </c>
       <c r="M19">
-        <v>1.037562968939816</v>
+        <v>1.037571399832952</v>
       </c>
       <c r="N19">
-        <v>1.013131803863047</v>
+        <v>1.014587384999673</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038870346308044</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.038877014453429</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020933674139919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.998822245644015</v>
+        <v>0.9989425181709798</v>
       </c>
       <c r="D20">
-        <v>1.017672305086437</v>
+        <v>1.017511615019297</v>
       </c>
       <c r="E20">
-        <v>1.014706268337887</v>
+        <v>1.0148098140831</v>
       </c>
       <c r="F20">
-        <v>1.021870697836116</v>
+        <v>1.02195234257162</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045544101514711</v>
+        <v>1.045511452557981</v>
       </c>
       <c r="J20">
-        <v>1.026398643361028</v>
+        <v>1.026514264918704</v>
       </c>
       <c r="K20">
-        <v>1.031411366668562</v>
+        <v>1.031253377569423</v>
       </c>
       <c r="L20">
-        <v>1.028495362589719</v>
+        <v>1.028597155312789</v>
       </c>
       <c r="M20">
-        <v>1.035539578187097</v>
+        <v>1.035619865492775</v>
       </c>
       <c r="N20">
-        <v>1.012701602862577</v>
+        <v>1.014337921244153</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036740547010178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.036804086195523</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020716373100055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9945423144879491</v>
+        <v>0.994948241628553</v>
       </c>
       <c r="D21">
-        <v>1.014696773344641</v>
+        <v>1.014871327157754</v>
       </c>
       <c r="E21">
-        <v>1.01136468082536</v>
+        <v>1.011702137961494</v>
       </c>
       <c r="F21">
-        <v>1.018487374486097</v>
+        <v>1.018756716600193</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044287529671614</v>
+        <v>1.044451396806621</v>
       </c>
       <c r="J21">
-        <v>1.024270004897734</v>
+        <v>1.024658703794243</v>
       </c>
       <c r="K21">
-        <v>1.029404959620755</v>
+        <v>1.029576330676933</v>
       </c>
       <c r="L21">
-        <v>1.026133897840013</v>
+        <v>1.026465150263971</v>
       </c>
       <c r="M21">
-        <v>1.033126763224527</v>
+        <v>1.033391242238484</v>
       </c>
       <c r="N21">
-        <v>1.011986263538619</v>
+        <v>1.014258711216448</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034789978554608</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.034999297605915</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020376965644332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9918285305671675</v>
+        <v>0.9924143349756966</v>
       </c>
       <c r="D22">
-        <v>1.012817007078782</v>
+        <v>1.013202639868155</v>
       </c>
       <c r="E22">
-        <v>1.009273777236124</v>
+        <v>1.0097584739259</v>
       </c>
       <c r="F22">
-        <v>1.016398899985574</v>
+        <v>1.016786426889133</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043488423408714</v>
+        <v>1.043775600776409</v>
       </c>
       <c r="J22">
-        <v>1.02293161511356</v>
+        <v>1.023491119208501</v>
       </c>
       <c r="K22">
-        <v>1.028138761977733</v>
+        <v>1.02851700995918</v>
       </c>
       <c r="L22">
-        <v>1.02466373054154</v>
+        <v>1.025139060997633</v>
       </c>
       <c r="M22">
-        <v>1.031652344231239</v>
+        <v>1.03203251828965</v>
       </c>
       <c r="N22">
-        <v>1.01153828943839</v>
+        <v>1.014205359552109</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033623064471379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.033923949591326</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020161750766324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9932721642705961</v>
+        <v>0.9937517851649085</v>
       </c>
       <c r="D23">
-        <v>1.013816627081239</v>
+        <v>1.014081813173423</v>
       </c>
       <c r="E23">
-        <v>1.010385310591434</v>
+        <v>1.01078285476028</v>
       </c>
       <c r="F23">
-        <v>1.01750890341678</v>
+        <v>1.017826543485225</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043914444435611</v>
+        <v>1.04413039079902</v>
       </c>
       <c r="J23">
-        <v>1.023643790734628</v>
+        <v>1.024102506280862</v>
       </c>
       <c r="K23">
-        <v>1.028812663635847</v>
+        <v>1.029072900741286</v>
       </c>
       <c r="L23">
-        <v>1.025445689521303</v>
+        <v>1.025835749909546</v>
       </c>
       <c r="M23">
-        <v>1.032436336094991</v>
+        <v>1.032748104600743</v>
       </c>
       <c r="N23">
-        <v>1.011776661974528</v>
+        <v>1.014192196579465</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034243547187585</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.034490293179602</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020274095462536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9988467344844169</v>
+        <v>0.9989666591236328</v>
       </c>
       <c r="D24">
-        <v>1.017683926776316</v>
+        <v>1.017522962963373</v>
       </c>
       <c r="E24">
-        <v>1.014693642598188</v>
+        <v>1.014797017853665</v>
       </c>
       <c r="F24">
-        <v>1.021816523060704</v>
+        <v>1.021898007955541</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045539022214549</v>
+        <v>1.045506165534939</v>
       </c>
       <c r="J24">
-        <v>1.026389250807136</v>
+        <v>1.026504544763886</v>
       </c>
       <c r="K24">
-        <v>1.031407450251086</v>
+        <v>1.031249188458039</v>
       </c>
       <c r="L24">
-        <v>1.028467543094425</v>
+        <v>1.02856917040459</v>
       </c>
       <c r="M24">
-        <v>1.035471050040293</v>
+        <v>1.035551181713554</v>
       </c>
       <c r="N24">
-        <v>1.012695600947794</v>
+        <v>1.014329331486314</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036645336808748</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.036708755994179</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020712750737462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005103037002693</v>
+        <v>1.004963129875623</v>
       </c>
       <c r="D25">
-        <v>1.022037228016608</v>
+        <v>1.021509333254002</v>
       </c>
       <c r="E25">
-        <v>1.019560368569276</v>
+        <v>1.019453300908931</v>
       </c>
       <c r="F25">
-        <v>1.02669306068323</v>
+        <v>1.026605111063092</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04731880759556</v>
+        <v>1.047083064363469</v>
       </c>
       <c r="J25">
-        <v>1.029459875642033</v>
+        <v>1.029324611615437</v>
       </c>
       <c r="K25">
-        <v>1.034302812012533</v>
+        <v>1.033782674601133</v>
       </c>
       <c r="L25">
-        <v>1.031862438114805</v>
+        <v>1.031756952700904</v>
       </c>
       <c r="M25">
-        <v>1.038890665778566</v>
+        <v>1.03880399304864</v>
       </c>
       <c r="N25">
-        <v>1.013723331225161</v>
+        <v>1.015031638829508</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039351742826499</v>
+        <v>1.039283147059219</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021222892320989</v>
       </c>
     </row>
   </sheetData>
